--- a/USDATAX/META.xlsx
+++ b/USDATAX/META.xlsx
@@ -18,7 +18,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="343" uniqueCount="78">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="345" uniqueCount="79">
   <si>
     <t>Kalem</t>
   </si>
@@ -252,6 +252,9 @@
   </si>
   <si>
     <t>İşletme Faaliyetlerinden Nakit Akışları</t>
+  </si>
+  <si>
+    <t>FAVÖK</t>
   </si>
 </sst>
 </file>
@@ -609,7 +612,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:BI18"/>
+  <dimension ref="A1:BI19"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -2696,7 +2699,7 @@
         <v>28823000000</v>
       </c>
     </row>
-    <row r="17" spans="1:59">
+    <row r="17" spans="1:61">
       <c r="A17" t="s">
         <v>76</v>
       </c>
@@ -2743,7 +2746,7 @@
         <v>-20010000000</v>
       </c>
     </row>
-    <row r="18" spans="1:59">
+    <row r="18" spans="1:61">
       <c r="A18" t="s">
         <v>77</v>
       </c>
@@ -2788,6 +2791,191 @@
       </c>
       <c r="BG18">
         <v>24026000000</v>
+      </c>
+    </row>
+    <row r="19" spans="1:61">
+      <c r="A19" t="s">
+        <v>78</v>
+      </c>
+      <c r="B19">
+        <v>0</v>
+      </c>
+      <c r="C19">
+        <v>0</v>
+      </c>
+      <c r="D19">
+        <v>0</v>
+      </c>
+      <c r="E19">
+        <v>407000000</v>
+      </c>
+      <c r="F19">
+        <v>414000000</v>
+      </c>
+      <c r="G19">
+        <v>0</v>
+      </c>
+      <c r="H19">
+        <v>491000000</v>
+      </c>
+      <c r="I19">
+        <v>-743000000</v>
+      </c>
+      <c r="J19">
+        <v>377000000</v>
+      </c>
+      <c r="K19">
+        <v>0</v>
+      </c>
+      <c r="L19">
+        <v>606000000</v>
+      </c>
+      <c r="M19">
+        <v>562000000</v>
+      </c>
+      <c r="N19">
+        <v>736000000</v>
+      </c>
+      <c r="O19">
+        <v>0</v>
+      </c>
+      <c r="P19">
+        <v>1339000000</v>
+      </c>
+      <c r="Q19">
+        <v>1390000000</v>
+      </c>
+      <c r="R19">
+        <v>1397000000</v>
+      </c>
+      <c r="S19">
+        <v>0</v>
+      </c>
+      <c r="T19">
+        <v>1390000000</v>
+      </c>
+      <c r="U19">
+        <v>1273000000</v>
+      </c>
+      <c r="V19">
+        <v>1459000000</v>
+      </c>
+      <c r="W19">
+        <v>0</v>
+      </c>
+      <c r="X19">
+        <v>2562000000</v>
+      </c>
+      <c r="Y19">
+        <v>2734000000</v>
+      </c>
+      <c r="Z19">
+        <v>3117000000</v>
+      </c>
+      <c r="AA19">
+        <v>0</v>
+      </c>
+      <c r="AB19">
+        <v>3998000000</v>
+      </c>
+      <c r="AC19">
+        <v>4401000000</v>
+      </c>
+      <c r="AD19">
+        <v>5122000000</v>
+      </c>
+      <c r="AE19">
+        <v>0</v>
+      </c>
+      <c r="AF19">
+        <v>6398000000</v>
+      </c>
+      <c r="AG19">
+        <v>5863000000</v>
+      </c>
+      <c r="AH19">
+        <v>5781000000</v>
+      </c>
+      <c r="AI19">
+        <v>0</v>
+      </c>
+      <c r="AJ19">
+        <v>4672000000</v>
+      </c>
+      <c r="AK19">
+        <v>4626000000</v>
+      </c>
+      <c r="AL19">
+        <v>7185000000</v>
+      </c>
+      <c r="AM19">
+        <v>0</v>
+      </c>
+      <c r="AN19">
+        <v>7490000000</v>
+      </c>
+      <c r="AO19">
+        <v>5963000000</v>
+      </c>
+      <c r="AP19">
+        <v>8040000000</v>
+      </c>
+      <c r="AQ19">
+        <v>0</v>
+      </c>
+      <c r="AR19">
+        <v>13350000000</v>
+      </c>
+      <c r="AS19">
+        <v>12367000000</v>
+      </c>
+      <c r="AT19">
+        <v>10423000000</v>
+      </c>
+      <c r="AU19">
+        <v>0</v>
+      </c>
+      <c r="AV19">
+        <v>10680000000</v>
+      </c>
+      <c r="AW19">
+        <v>8358000000</v>
+      </c>
+      <c r="AX19">
+        <v>5664000000</v>
+      </c>
+      <c r="AY19">
+        <v>0</v>
+      </c>
+      <c r="AZ19">
+        <v>9751000000</v>
+      </c>
+      <c r="BA19">
+        <v>9392000000</v>
+      </c>
+      <c r="BB19">
+        <v>13748000000</v>
+      </c>
+      <c r="BC19">
+        <v>0</v>
+      </c>
+      <c r="BD19">
+        <v>17192000000</v>
+      </c>
+      <c r="BE19">
+        <v>14847000000</v>
+      </c>
+      <c r="BF19">
+        <v>17350000000</v>
+      </c>
+      <c r="BG19">
+        <v>21455000000</v>
+      </c>
+      <c r="BH19">
+        <v>20441000000</v>
+      </c>
+      <c r="BI19">
+        <v>20535000000</v>
       </c>
     </row>
   </sheetData>
@@ -4226,7 +4414,7 @@
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:BI6"/>
+  <dimension ref="A1:BI7"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
@@ -5010,6 +5198,191 @@
       </c>
       <c r="BI6">
         <v>51242000000</v>
+      </c>
+    </row>
+    <row r="7" spans="1:61">
+      <c r="A7" t="s">
+        <v>78</v>
+      </c>
+      <c r="B7">
+        <v>0</v>
+      </c>
+      <c r="C7">
+        <v>0</v>
+      </c>
+      <c r="D7">
+        <v>0</v>
+      </c>
+      <c r="E7">
+        <v>407000000</v>
+      </c>
+      <c r="F7">
+        <v>414000000</v>
+      </c>
+      <c r="G7">
+        <v>0</v>
+      </c>
+      <c r="H7">
+        <v>491000000</v>
+      </c>
+      <c r="I7">
+        <v>-743000000</v>
+      </c>
+      <c r="J7">
+        <v>377000000</v>
+      </c>
+      <c r="K7">
+        <v>0</v>
+      </c>
+      <c r="L7">
+        <v>606000000</v>
+      </c>
+      <c r="M7">
+        <v>562000000</v>
+      </c>
+      <c r="N7">
+        <v>736000000</v>
+      </c>
+      <c r="O7">
+        <v>0</v>
+      </c>
+      <c r="P7">
+        <v>1339000000</v>
+      </c>
+      <c r="Q7">
+        <v>1390000000</v>
+      </c>
+      <c r="R7">
+        <v>1397000000</v>
+      </c>
+      <c r="S7">
+        <v>0</v>
+      </c>
+      <c r="T7">
+        <v>1390000000</v>
+      </c>
+      <c r="U7">
+        <v>1273000000</v>
+      </c>
+      <c r="V7">
+        <v>1459000000</v>
+      </c>
+      <c r="W7">
+        <v>0</v>
+      </c>
+      <c r="X7">
+        <v>2562000000</v>
+      </c>
+      <c r="Y7">
+        <v>2734000000</v>
+      </c>
+      <c r="Z7">
+        <v>3117000000</v>
+      </c>
+      <c r="AA7">
+        <v>0</v>
+      </c>
+      <c r="AB7">
+        <v>3998000000</v>
+      </c>
+      <c r="AC7">
+        <v>4401000000</v>
+      </c>
+      <c r="AD7">
+        <v>5122000000</v>
+      </c>
+      <c r="AE7">
+        <v>0</v>
+      </c>
+      <c r="AF7">
+        <v>6398000000</v>
+      </c>
+      <c r="AG7">
+        <v>5863000000</v>
+      </c>
+      <c r="AH7">
+        <v>5781000000</v>
+      </c>
+      <c r="AI7">
+        <v>0</v>
+      </c>
+      <c r="AJ7">
+        <v>4672000000</v>
+      </c>
+      <c r="AK7">
+        <v>4626000000</v>
+      </c>
+      <c r="AL7">
+        <v>7185000000</v>
+      </c>
+      <c r="AM7">
+        <v>0</v>
+      </c>
+      <c r="AN7">
+        <v>7490000000</v>
+      </c>
+      <c r="AO7">
+        <v>5963000000</v>
+      </c>
+      <c r="AP7">
+        <v>8040000000</v>
+      </c>
+      <c r="AQ7">
+        <v>0</v>
+      </c>
+      <c r="AR7">
+        <v>13350000000</v>
+      </c>
+      <c r="AS7">
+        <v>12367000000</v>
+      </c>
+      <c r="AT7">
+        <v>10423000000</v>
+      </c>
+      <c r="AU7">
+        <v>0</v>
+      </c>
+      <c r="AV7">
+        <v>10680000000</v>
+      </c>
+      <c r="AW7">
+        <v>8358000000</v>
+      </c>
+      <c r="AX7">
+        <v>5664000000</v>
+      </c>
+      <c r="AY7">
+        <v>0</v>
+      </c>
+      <c r="AZ7">
+        <v>9751000000</v>
+      </c>
+      <c r="BA7">
+        <v>9392000000</v>
+      </c>
+      <c r="BB7">
+        <v>13748000000</v>
+      </c>
+      <c r="BC7">
+        <v>0</v>
+      </c>
+      <c r="BD7">
+        <v>17192000000</v>
+      </c>
+      <c r="BE7">
+        <v>14847000000</v>
+      </c>
+      <c r="BF7">
+        <v>17350000000</v>
+      </c>
+      <c r="BG7">
+        <v>21455000000</v>
+      </c>
+      <c r="BH7">
+        <v>20441000000</v>
+      </c>
+      <c r="BI7">
+        <v>20535000000</v>
       </c>
     </row>
   </sheetData>
